--- a/exam_seating_planner/TestData_BETA.xlsx
+++ b/exam_seating_planner/TestData_BETA.xlsx
@@ -1722,10 +1722,10 @@
         <v>25</v>
       </c>
       <c r="I2" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J2" s="6">
-        <v>3.707638888888889</v>
+        <v>4.707407407407407</v>
       </c>
       <c r="K2" s="2">
         <v>5395</v>
@@ -1787,10 +1787,10 @@
         <v>25</v>
       </c>
       <c r="I3" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J3" s="6">
-        <v>3.707638888888889</v>
+        <v>4.707407407407407</v>
       </c>
       <c r="K3" s="2">
         <v>5396</v>
@@ -1852,10 +1852,10 @@
         <v>25</v>
       </c>
       <c r="I4" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J4" s="6">
-        <v>3.707638888888889</v>
+        <v>4.707407407407407</v>
       </c>
       <c r="K4" s="2">
         <v>5397</v>
@@ -1917,10 +1917,10 @@
         <v>25</v>
       </c>
       <c r="I5" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J5" s="6">
-        <v>3.707638888888889</v>
+        <v>4.707407407407407</v>
       </c>
       <c r="K5" s="2">
         <v>5398</v>
@@ -1953,7 +1953,7 @@
         <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
@@ -1982,10 +1982,10 @@
         <v>25</v>
       </c>
       <c r="I6" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J6" s="6">
-        <v>3.707638888888889</v>
+        <v>4.707407407407407</v>
       </c>
       <c r="K6" s="2">
         <v>5399</v>
@@ -2047,10 +2047,10 @@
         <v>25</v>
       </c>
       <c r="I7" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J7" s="6">
-        <v>3.707638888888889</v>
+        <v>4.707407407407407</v>
       </c>
       <c r="K7" s="2">
         <v>5400</v>
@@ -2112,10 +2112,10 @@
         <v>25</v>
       </c>
       <c r="I8" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J8" s="6">
-        <v>3.707638888888889</v>
+        <v>4.707407407407407</v>
       </c>
       <c r="K8" s="2">
         <v>5401</v>
@@ -2177,10 +2177,10 @@
         <v>25</v>
       </c>
       <c r="I9" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J9" s="6">
-        <v>3.707638888888889</v>
+        <v>4.707407407407407</v>
       </c>
       <c r="K9" s="2">
         <v>5402</v>
@@ -2242,10 +2242,10 @@
         <v>25</v>
       </c>
       <c r="I10" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J10" s="6">
-        <v>3.707638888888889</v>
+        <v>4.707407407407407</v>
       </c>
       <c r="K10" s="2">
         <v>5403</v>
@@ -2307,10 +2307,10 @@
         <v>52</v>
       </c>
       <c r="I11" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J11" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K11" s="2">
         <v>5395</v>
@@ -2372,10 +2372,10 @@
         <v>52</v>
       </c>
       <c r="I12" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J12" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K12" s="2">
         <v>5396</v>
@@ -2437,10 +2437,10 @@
         <v>52</v>
       </c>
       <c r="I13" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J13" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K13" s="2">
         <v>5397</v>
@@ -2502,10 +2502,10 @@
         <v>52</v>
       </c>
       <c r="I14" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J14" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K14" s="2">
         <v>5398</v>
@@ -2567,10 +2567,10 @@
         <v>52</v>
       </c>
       <c r="I15" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J15" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K15" s="2">
         <v>5399</v>
@@ -2632,10 +2632,10 @@
         <v>52</v>
       </c>
       <c r="I16" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J16" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K16" s="2">
         <v>5400</v>
@@ -2697,10 +2697,10 @@
         <v>52</v>
       </c>
       <c r="I17" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J17" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K17" s="2">
         <v>5401</v>
@@ -2762,10 +2762,10 @@
         <v>52</v>
       </c>
       <c r="I18" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J18" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K18" s="2">
         <v>5402</v>
@@ -2827,10 +2827,10 @@
         <v>52</v>
       </c>
       <c r="I19" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J19" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K19" s="2">
         <v>5403</v>
@@ -2892,10 +2892,10 @@
         <v>52</v>
       </c>
       <c r="I20" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J20" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K20" s="2">
         <v>5395</v>
@@ -2957,10 +2957,10 @@
         <v>52</v>
       </c>
       <c r="I21" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J21" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K21" s="2">
         <v>5396</v>
@@ -3022,10 +3022,10 @@
         <v>52</v>
       </c>
       <c r="I22" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J22" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K22" s="2">
         <v>5397</v>
@@ -3087,10 +3087,10 @@
         <v>52</v>
       </c>
       <c r="I23" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J23" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K23" s="2">
         <v>5398</v>
@@ -3152,10 +3152,10 @@
         <v>52</v>
       </c>
       <c r="I24" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J24" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K24" s="2">
         <v>5399</v>
@@ -3217,10 +3217,10 @@
         <v>52</v>
       </c>
       <c r="I25" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J25" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K25" s="2">
         <v>5400</v>
@@ -3282,10 +3282,10 @@
         <v>52</v>
       </c>
       <c r="I26" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J26" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K26" s="2">
         <v>5401</v>
@@ -3347,10 +3347,10 @@
         <v>52</v>
       </c>
       <c r="I27" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J27" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K27" s="2">
         <v>5402</v>
@@ -3412,10 +3412,10 @@
         <v>52</v>
       </c>
       <c r="I28" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J28" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K28" s="2">
         <v>5403</v>
@@ -3477,10 +3477,10 @@
         <v>25</v>
       </c>
       <c r="I29" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J29" s="6">
-        <v>3.6868055555555554</v>
+        <v>4.686574074074074</v>
       </c>
       <c r="K29" s="2">
         <v>5395</v>
@@ -3542,10 +3542,10 @@
         <v>25</v>
       </c>
       <c r="I30" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J30" s="6">
-        <v>3.6868055555555554</v>
+        <v>4.686574074074074</v>
       </c>
       <c r="K30" s="2">
         <v>5396</v>
@@ -3607,10 +3607,10 @@
         <v>25</v>
       </c>
       <c r="I31" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J31" s="6">
-        <v>3.6868055555555554</v>
+        <v>4.686574074074074</v>
       </c>
       <c r="K31" s="2">
         <v>5397</v>
@@ -3672,10 +3672,10 @@
         <v>25</v>
       </c>
       <c r="I32" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J32" s="6">
-        <v>3.6868055555555554</v>
+        <v>4.686574074074074</v>
       </c>
       <c r="K32" s="2">
         <v>5398</v>
@@ -3737,10 +3737,10 @@
         <v>25</v>
       </c>
       <c r="I33" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J33" s="6">
-        <v>3.6868055555555554</v>
+        <v>4.686574074074074</v>
       </c>
       <c r="K33" s="2">
         <v>5399</v>
@@ -3802,10 +3802,10 @@
         <v>25</v>
       </c>
       <c r="I34" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J34" s="6">
-        <v>3.6868055555555554</v>
+        <v>4.686574074074074</v>
       </c>
       <c r="K34" s="2">
         <v>5400</v>
@@ -3867,10 +3867,10 @@
         <v>25</v>
       </c>
       <c r="I35" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J35" s="6">
-        <v>3.6868055555555554</v>
+        <v>4.686574074074074</v>
       </c>
       <c r="K35" s="2">
         <v>5401</v>
@@ -3932,10 +3932,10 @@
         <v>25</v>
       </c>
       <c r="I36" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J36" s="6">
-        <v>3.6868055555555554</v>
+        <v>4.686574074074074</v>
       </c>
       <c r="K36" s="2">
         <v>5402</v>
@@ -3997,10 +3997,10 @@
         <v>25</v>
       </c>
       <c r="I37" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J37" s="6">
-        <v>3.6868055555555554</v>
+        <v>4.686574074074074</v>
       </c>
       <c r="K37" s="2">
         <v>5403</v>
@@ -4062,10 +4062,10 @@
         <v>52</v>
       </c>
       <c r="I38" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J38" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K38" s="2">
         <v>5395</v>
@@ -4127,10 +4127,10 @@
         <v>52</v>
       </c>
       <c r="I39" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J39" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K39" s="2">
         <v>5396</v>
@@ -4192,10 +4192,10 @@
         <v>52</v>
       </c>
       <c r="I40" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J40" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K40" s="2">
         <v>5397</v>
@@ -4257,10 +4257,10 @@
         <v>52</v>
       </c>
       <c r="I41" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J41" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K41" s="2">
         <v>5398</v>
@@ -4322,10 +4322,10 @@
         <v>52</v>
       </c>
       <c r="I42" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J42" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K42" s="2">
         <v>5399</v>
@@ -4387,10 +4387,10 @@
         <v>52</v>
       </c>
       <c r="I43" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J43" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K43" s="2">
         <v>5400</v>
@@ -4452,10 +4452,10 @@
         <v>52</v>
       </c>
       <c r="I44" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J44" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K44" s="2">
         <v>5401</v>
@@ -4517,10 +4517,10 @@
         <v>25</v>
       </c>
       <c r="I45" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J45" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K45" s="2">
         <v>5382</v>
@@ -4582,10 +4582,10 @@
         <v>25</v>
       </c>
       <c r="I46" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J46" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K46" s="2">
         <v>5384</v>
@@ -4647,10 +4647,10 @@
         <v>25</v>
       </c>
       <c r="I47" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J47" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K47" s="2">
         <v>5385</v>
@@ -4712,10 +4712,10 @@
         <v>25</v>
       </c>
       <c r="I48" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J48" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K48" s="2">
         <v>5386</v>
@@ -4777,10 +4777,10 @@
         <v>25</v>
       </c>
       <c r="I49" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J49" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K49" s="2">
         <v>5387</v>
@@ -4842,10 +4842,10 @@
         <v>25</v>
       </c>
       <c r="I50" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J50" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K50" s="2">
         <v>5388</v>
@@ -4907,10 +4907,10 @@
         <v>25</v>
       </c>
       <c r="I51" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J51" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K51" s="2">
         <v>5389</v>
@@ -4972,10 +4972,10 @@
         <v>25</v>
       </c>
       <c r="I52" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J52" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K52" s="2">
         <v>5390</v>
@@ -5037,10 +5037,10 @@
         <v>25</v>
       </c>
       <c r="I53" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J53" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K53" s="2">
         <v>5391</v>
@@ -5102,10 +5102,10 @@
         <v>25</v>
       </c>
       <c r="I54" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J54" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K54" s="2">
         <v>5392</v>
@@ -5167,10 +5167,10 @@
         <v>25</v>
       </c>
       <c r="I55" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J55" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K55" s="2">
         <v>5393</v>
@@ -5232,10 +5232,10 @@
         <v>25</v>
       </c>
       <c r="I56" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J56" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K56" s="2">
         <v>5394</v>
@@ -5297,10 +5297,10 @@
         <v>25</v>
       </c>
       <c r="I57" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J57" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K57" s="2">
         <v>5404</v>
@@ -5362,10 +5362,10 @@
         <v>52</v>
       </c>
       <c r="I58" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J58" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K58" s="2">
         <v>5395</v>
@@ -5427,10 +5427,10 @@
         <v>52</v>
       </c>
       <c r="I59" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J59" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K59" s="2">
         <v>5396</v>
@@ -5492,10 +5492,10 @@
         <v>52</v>
       </c>
       <c r="I60" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J60" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K60" s="2">
         <v>5397</v>
@@ -5557,10 +5557,10 @@
         <v>52</v>
       </c>
       <c r="I61" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J61" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K61" s="2">
         <v>5398</v>
@@ -5622,10 +5622,10 @@
         <v>52</v>
       </c>
       <c r="I62" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J62" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K62" s="2">
         <v>5399</v>
@@ -5687,10 +5687,10 @@
         <v>52</v>
       </c>
       <c r="I63" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J63" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K63" s="2">
         <v>5400</v>
@@ -5752,10 +5752,10 @@
         <v>52</v>
       </c>
       <c r="I64" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J64" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K64" s="2">
         <v>5401</v>
@@ -5817,10 +5817,10 @@
         <v>52</v>
       </c>
       <c r="I65" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J65" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K65" s="2">
         <v>5402</v>
@@ -5882,10 +5882,10 @@
         <v>52</v>
       </c>
       <c r="I66" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J66" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K66" s="2">
         <v>5403</v>
@@ -5947,10 +5947,10 @@
         <v>52</v>
       </c>
       <c r="I67" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J67" s="6">
-        <v>3.551388888888889</v>
+        <v>4.551157407407407</v>
       </c>
       <c r="K67" s="2">
         <v>5383</v>
@@ -6012,10 +6012,10 @@
         <v>52</v>
       </c>
       <c r="I68" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J68" s="6">
-        <v>3.5618055555555554</v>
+        <v>4.561574074074074</v>
       </c>
       <c r="K68" s="2">
         <v>5395</v>
@@ -6077,10 +6077,10 @@
         <v>52</v>
       </c>
       <c r="I69" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J69" s="6">
-        <v>3.5618055555555554</v>
+        <v>4.561574074074074</v>
       </c>
       <c r="K69" s="2">
         <v>5396</v>
@@ -6142,10 +6142,10 @@
         <v>52</v>
       </c>
       <c r="I70" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J70" s="6">
-        <v>3.5618055555555554</v>
+        <v>4.561574074074074</v>
       </c>
       <c r="K70" s="2">
         <v>5397</v>
@@ -6207,10 +6207,10 @@
         <v>52</v>
       </c>
       <c r="I71" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J71" s="6">
-        <v>3.5618055555555554</v>
+        <v>4.561574074074074</v>
       </c>
       <c r="K71" s="2">
         <v>5398</v>
@@ -6272,10 +6272,10 @@
         <v>52</v>
       </c>
       <c r="I72" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J72" s="6">
-        <v>3.5618055555555554</v>
+        <v>4.561574074074074</v>
       </c>
       <c r="K72" s="2">
         <v>5399</v>
@@ -6337,10 +6337,10 @@
         <v>52</v>
       </c>
       <c r="I73" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J73" s="6">
-        <v>3.5618055555555554</v>
+        <v>4.561574074074074</v>
       </c>
       <c r="K73" s="2">
         <v>5400</v>
@@ -6402,10 +6402,10 @@
         <v>52</v>
       </c>
       <c r="I74" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J74" s="6">
-        <v>3.5618055555555554</v>
+        <v>4.561574074074074</v>
       </c>
       <c r="K74" s="2">
         <v>5401</v>
@@ -6467,10 +6467,10 @@
         <v>52</v>
       </c>
       <c r="I75" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J75" s="6">
-        <v>3.5618055555555554</v>
+        <v>4.561574074074074</v>
       </c>
       <c r="K75" s="2">
         <v>5402</v>
@@ -6532,10 +6532,10 @@
         <v>52</v>
       </c>
       <c r="I76" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J76" s="6">
-        <v>3.5618055555555554</v>
+        <v>4.561574074074074</v>
       </c>
       <c r="K76" s="2">
         <v>5403</v>
@@ -6597,10 +6597,10 @@
         <v>52</v>
       </c>
       <c r="I77" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J77" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K77" s="2">
         <v>5383</v>
@@ -6662,10 +6662,10 @@
         <v>52</v>
       </c>
       <c r="I78" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J78" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K78" s="2">
         <v>5395</v>
@@ -6727,10 +6727,10 @@
         <v>52</v>
       </c>
       <c r="I79" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J79" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K79" s="2">
         <v>5396</v>
@@ -6792,10 +6792,10 @@
         <v>52</v>
       </c>
       <c r="I80" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J80" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K80" s="2">
         <v>5397</v>
@@ -6857,10 +6857,10 @@
         <v>52</v>
       </c>
       <c r="I81" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J81" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K81" s="2">
         <v>5398</v>
@@ -6922,10 +6922,10 @@
         <v>52</v>
       </c>
       <c r="I82" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J82" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K82" s="2">
         <v>5399</v>
@@ -6987,10 +6987,10 @@
         <v>52</v>
       </c>
       <c r="I83" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J83" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K83" s="2">
         <v>5400</v>
@@ -7052,10 +7052,10 @@
         <v>52</v>
       </c>
       <c r="I84" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J84" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K84" s="2">
         <v>5401</v>
@@ -7117,10 +7117,10 @@
         <v>52</v>
       </c>
       <c r="I85" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J85" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K85" s="2">
         <v>5372</v>
@@ -7182,10 +7182,10 @@
         <v>52</v>
       </c>
       <c r="I86" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J86" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K86" s="2">
         <v>5374</v>
@@ -7247,10 +7247,10 @@
         <v>52</v>
       </c>
       <c r="I87" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J87" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K87" s="2">
         <v>5376</v>
@@ -7312,10 +7312,10 @@
         <v>52</v>
       </c>
       <c r="I88" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J88" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K88" s="2">
         <v>5377</v>
@@ -7377,10 +7377,10 @@
         <v>52</v>
       </c>
       <c r="I89" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J89" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K89" s="2">
         <v>5378</v>
@@ -7442,10 +7442,10 @@
         <v>52</v>
       </c>
       <c r="I90" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J90" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K90" s="2">
         <v>5380</v>
@@ -7507,10 +7507,10 @@
         <v>25</v>
       </c>
       <c r="I91" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J91" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K91" s="2">
         <v>5382</v>
@@ -7572,10 +7572,10 @@
         <v>25</v>
       </c>
       <c r="I92" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J92" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K92" s="2">
         <v>5384</v>
@@ -7637,10 +7637,10 @@
         <v>25</v>
       </c>
       <c r="I93" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J93" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K93" s="2">
         <v>5385</v>
@@ -7702,10 +7702,10 @@
         <v>25</v>
       </c>
       <c r="I94" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J94" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K94" s="2">
         <v>5386</v>
@@ -7767,10 +7767,10 @@
         <v>25</v>
       </c>
       <c r="I95" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J95" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K95" s="2">
         <v>5387</v>
@@ -7832,10 +7832,10 @@
         <v>25</v>
       </c>
       <c r="I96" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J96" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K96" s="2">
         <v>5388</v>
@@ -7897,10 +7897,10 @@
         <v>25</v>
       </c>
       <c r="I97" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J97" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K97" s="2">
         <v>5389</v>
@@ -7962,10 +7962,10 @@
         <v>25</v>
       </c>
       <c r="I98" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J98" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K98" s="2">
         <v>5390</v>
@@ -8027,10 +8027,10 @@
         <v>25</v>
       </c>
       <c r="I99" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J99" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K99" s="2">
         <v>5391</v>
@@ -8092,10 +8092,10 @@
         <v>25</v>
       </c>
       <c r="I100" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J100" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K100" s="2">
         <v>5392</v>
@@ -8157,10 +8157,10 @@
         <v>25</v>
       </c>
       <c r="I101" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J101" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K101" s="2">
         <v>5393</v>
@@ -8222,10 +8222,10 @@
         <v>25</v>
       </c>
       <c r="I102" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J102" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K102" s="2">
         <v>5394</v>
@@ -8287,10 +8287,10 @@
         <v>25</v>
       </c>
       <c r="I103" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J103" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K103" s="2">
         <v>5404</v>
@@ -8352,10 +8352,10 @@
         <v>52</v>
       </c>
       <c r="I104" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J104" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K104" s="2">
         <v>5395</v>
@@ -8417,10 +8417,10 @@
         <v>52</v>
       </c>
       <c r="I105" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J105" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K105" s="2">
         <v>5396</v>
@@ -8482,10 +8482,10 @@
         <v>52</v>
       </c>
       <c r="I106" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J106" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K106" s="2">
         <v>5397</v>
@@ -8547,10 +8547,10 @@
         <v>52</v>
       </c>
       <c r="I107" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J107" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K107" s="2">
         <v>5398</v>
@@ -8612,10 +8612,10 @@
         <v>52</v>
       </c>
       <c r="I108" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J108" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K108" s="2">
         <v>5399</v>
@@ -8677,10 +8677,10 @@
         <v>52</v>
       </c>
       <c r="I109" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J109" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K109" s="2">
         <v>5400</v>
@@ -8742,10 +8742,10 @@
         <v>52</v>
       </c>
       <c r="I110" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J110" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K110" s="2">
         <v>5401</v>
@@ -8807,10 +8807,10 @@
         <v>52</v>
       </c>
       <c r="I111" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J111" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K111" s="2">
         <v>5402</v>
@@ -8872,10 +8872,10 @@
         <v>52</v>
       </c>
       <c r="I112" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J112" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K112" s="2">
         <v>5403</v>
@@ -8937,10 +8937,10 @@
         <v>52</v>
       </c>
       <c r="I113" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J113" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K113" s="2">
         <v>5371</v>
@@ -9002,10 +9002,10 @@
         <v>52</v>
       </c>
       <c r="I114" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J114" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K114" s="2">
         <v>5372</v>
@@ -9067,10 +9067,10 @@
         <v>52</v>
       </c>
       <c r="I115" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J115" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K115" s="2">
         <v>5374</v>
@@ -9132,10 +9132,10 @@
         <v>52</v>
       </c>
       <c r="I116" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J116" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K116" s="2">
         <v>5375</v>
@@ -9197,10 +9197,10 @@
         <v>52</v>
       </c>
       <c r="I117" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J117" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K117" s="2">
         <v>5376</v>
@@ -9262,10 +9262,10 @@
         <v>52</v>
       </c>
       <c r="I118" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J118" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K118" s="2">
         <v>5377</v>
@@ -9327,10 +9327,10 @@
         <v>52</v>
       </c>
       <c r="I119" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J119" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K119" s="2">
         <v>5378</v>
@@ -9392,10 +9392,10 @@
         <v>52</v>
       </c>
       <c r="I120" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J120" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K120" s="2">
         <v>5379</v>
@@ -9457,10 +9457,10 @@
         <v>52</v>
       </c>
       <c r="I121" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J121" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K121" s="2">
         <v>5380</v>
@@ -9522,10 +9522,10 @@
         <v>52</v>
       </c>
       <c r="I122" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J122" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K122" s="2">
         <v>5395</v>
@@ -9587,10 +9587,10 @@
         <v>52</v>
       </c>
       <c r="I123" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J123" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K123" s="2">
         <v>5396</v>
@@ -9652,10 +9652,10 @@
         <v>52</v>
       </c>
       <c r="I124" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J124" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K124" s="2">
         <v>5397</v>
@@ -9717,10 +9717,10 @@
         <v>52</v>
       </c>
       <c r="I125" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J125" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K125" s="2">
         <v>5398</v>
@@ -9782,10 +9782,10 @@
         <v>52</v>
       </c>
       <c r="I126" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J126" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K126" s="2">
         <v>5399</v>
@@ -9847,10 +9847,10 @@
         <v>52</v>
       </c>
       <c r="I127" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J127" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K127" s="2">
         <v>5400</v>
@@ -9912,10 +9912,10 @@
         <v>52</v>
       </c>
       <c r="I128" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J128" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K128" s="2">
         <v>5401</v>
@@ -9977,10 +9977,10 @@
         <v>52</v>
       </c>
       <c r="I129" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J129" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K129" s="2">
         <v>5403</v>
@@ -10042,10 +10042,10 @@
         <v>52</v>
       </c>
       <c r="I130" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J130" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K130" s="2">
         <v>5395</v>
@@ -10107,10 +10107,10 @@
         <v>52</v>
       </c>
       <c r="I131" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J131" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K131" s="2">
         <v>5396</v>
@@ -10172,10 +10172,10 @@
         <v>52</v>
       </c>
       <c r="I132" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J132" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K132" s="2">
         <v>5397</v>
@@ -10237,10 +10237,10 @@
         <v>52</v>
       </c>
       <c r="I133" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J133" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K133" s="2">
         <v>5398</v>
@@ -10302,10 +10302,10 @@
         <v>52</v>
       </c>
       <c r="I134" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J134" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K134" s="2">
         <v>5399</v>
@@ -10367,10 +10367,10 @@
         <v>52</v>
       </c>
       <c r="I135" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J135" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K135" s="2">
         <v>5400</v>
@@ -10432,10 +10432,10 @@
         <v>52</v>
       </c>
       <c r="I136" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J136" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K136" s="2">
         <v>5401</v>
@@ -10497,10 +10497,10 @@
         <v>52</v>
       </c>
       <c r="I137" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J137" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K137" s="2">
         <v>5402</v>
@@ -10562,10 +10562,10 @@
         <v>52</v>
       </c>
       <c r="I138" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J138" s="6">
-        <v>3.5305555555555554</v>
+        <v>4.530324074074074</v>
       </c>
       <c r="K138" s="2">
         <v>5403</v>
@@ -10627,10 +10627,10 @@
         <v>52</v>
       </c>
       <c r="I139" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J139" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K139" s="2">
         <v>5371</v>
@@ -10692,10 +10692,10 @@
         <v>52</v>
       </c>
       <c r="I140" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J140" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K140" s="2">
         <v>5373</v>
@@ -10757,10 +10757,10 @@
         <v>52</v>
       </c>
       <c r="I141" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J141" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K141" s="2">
         <v>5374</v>
@@ -10822,10 +10822,10 @@
         <v>52</v>
       </c>
       <c r="I142" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J142" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K142" s="2">
         <v>5375</v>
@@ -10887,10 +10887,10 @@
         <v>52</v>
       </c>
       <c r="I143" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J143" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K143" s="2">
         <v>5376</v>
@@ -10952,10 +10952,10 @@
         <v>52</v>
       </c>
       <c r="I144" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J144" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K144" s="2">
         <v>5377</v>
@@ -11017,10 +11017,10 @@
         <v>52</v>
       </c>
       <c r="I145" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J145" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K145" s="2">
         <v>5378</v>
@@ -11082,10 +11082,10 @@
         <v>52</v>
       </c>
       <c r="I146" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J146" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K146" s="2">
         <v>5379</v>
@@ -11147,10 +11147,10 @@
         <v>52</v>
       </c>
       <c r="I147" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J147" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K147" s="2">
         <v>5380</v>
@@ -11212,10 +11212,10 @@
         <v>25</v>
       </c>
       <c r="I148" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J148" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K148" s="2">
         <v>5371</v>
@@ -11277,10 +11277,10 @@
         <v>25</v>
       </c>
       <c r="I149" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J149" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K149" s="2">
         <v>5373</v>
@@ -11342,10 +11342,10 @@
         <v>25</v>
       </c>
       <c r="I150" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J150" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K150" s="2">
         <v>5375</v>
@@ -11407,10 +11407,10 @@
         <v>25</v>
       </c>
       <c r="I151" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J151" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K151" s="2">
         <v>5376</v>
@@ -11472,10 +11472,10 @@
         <v>25</v>
       </c>
       <c r="I152" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J152" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K152" s="2">
         <v>5377</v>
@@ -11537,10 +11537,10 @@
         <v>25</v>
       </c>
       <c r="I153" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J153" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K153" s="2">
         <v>5378</v>
@@ -11602,10 +11602,10 @@
         <v>25</v>
       </c>
       <c r="I154" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J154" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K154" s="2">
         <v>5379</v>
@@ -11667,10 +11667,10 @@
         <v>25</v>
       </c>
       <c r="I155" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J155" s="6">
-        <v>3.676388888888889</v>
+        <v>4.676157407407407</v>
       </c>
       <c r="K155" s="2">
         <v>5380</v>
@@ -11732,10 +11732,10 @@
         <v>52</v>
       </c>
       <c r="I156" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J156" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K156" s="2">
         <v>5395</v>
@@ -11797,10 +11797,10 @@
         <v>52</v>
       </c>
       <c r="I157" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J157" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K157" s="2">
         <v>5396</v>
@@ -11862,10 +11862,10 @@
         <v>52</v>
       </c>
       <c r="I158" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J158" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K158" s="2">
         <v>5397</v>
@@ -11927,10 +11927,10 @@
         <v>52</v>
       </c>
       <c r="I159" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J159" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K159" s="2">
         <v>5398</v>
@@ -11992,10 +11992,10 @@
         <v>52</v>
       </c>
       <c r="I160" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J160" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K160" s="2">
         <v>5399</v>
@@ -12057,10 +12057,10 @@
         <v>52</v>
       </c>
       <c r="I161" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J161" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K161" s="2">
         <v>5400</v>
@@ -12122,10 +12122,10 @@
         <v>52</v>
       </c>
       <c r="I162" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J162" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K162" s="2">
         <v>5401</v>
@@ -12187,10 +12187,10 @@
         <v>52</v>
       </c>
       <c r="I163" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J163" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K163" s="2">
         <v>5402</v>
@@ -12252,10 +12252,10 @@
         <v>52</v>
       </c>
       <c r="I164" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J164" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K164" s="2">
         <v>5403</v>
@@ -12317,10 +12317,10 @@
         <v>52</v>
       </c>
       <c r="I165" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J165" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K165" s="2">
         <v>5381</v>
@@ -12382,10 +12382,10 @@
         <v>52</v>
       </c>
       <c r="I166" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J166" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K166" s="2">
         <v>5382</v>
@@ -12447,10 +12447,10 @@
         <v>52</v>
       </c>
       <c r="I167" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J167" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K167" s="2">
         <v>5383</v>
@@ -12512,10 +12512,10 @@
         <v>52</v>
       </c>
       <c r="I168" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J168" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K168" s="2">
         <v>5385</v>
@@ -12577,10 +12577,10 @@
         <v>52</v>
       </c>
       <c r="I169" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J169" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K169" s="2">
         <v>5386</v>
@@ -12642,10 +12642,10 @@
         <v>52</v>
       </c>
       <c r="I170" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J170" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K170" s="2">
         <v>5391</v>
@@ -12681,7 +12681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1" t="s">
         <v>21</v>
       </c>
@@ -12707,10 +12707,10 @@
         <v>52</v>
       </c>
       <c r="I171" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J171" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K171" s="2">
         <v>5392</v>
@@ -12746,7 +12746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1" t="s">
         <v>21</v>
       </c>
@@ -12772,10 +12772,10 @@
         <v>52</v>
       </c>
       <c r="I172" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J172" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K172" s="2">
         <v>5393</v>
@@ -12811,7 +12811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1" t="s">
         <v>21</v>
       </c>
@@ -12837,10 +12837,10 @@
         <v>52</v>
       </c>
       <c r="I173" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J173" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K173" s="2">
         <v>5394</v>
@@ -12876,7 +12876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1" t="s">
         <v>21</v>
       </c>
@@ -12902,10 +12902,10 @@
         <v>52</v>
       </c>
       <c r="I174" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J174" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K174" s="2">
         <v>5372</v>
@@ -12941,7 +12941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1" t="s">
         <v>21</v>
       </c>
@@ -12967,10 +12967,10 @@
         <v>52</v>
       </c>
       <c r="I175" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J175" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K175" s="2">
         <v>5374</v>
@@ -13006,7 +13006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1" t="s">
         <v>21</v>
       </c>
@@ -13032,10 +13032,10 @@
         <v>52</v>
       </c>
       <c r="I176" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J176" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K176" s="2">
         <v>5376</v>
@@ -13097,10 +13097,10 @@
         <v>52</v>
       </c>
       <c r="I177" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J177" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K177" s="2">
         <v>5377</v>
@@ -13162,10 +13162,10 @@
         <v>52</v>
       </c>
       <c r="I178" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J178" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K178" s="2">
         <v>5378</v>
@@ -13227,10 +13227,10 @@
         <v>52</v>
       </c>
       <c r="I179" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J179" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K179" s="2">
         <v>5380</v>
@@ -13292,10 +13292,10 @@
         <v>52</v>
       </c>
       <c r="I180" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J180" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K180" s="2">
         <v>5373</v>
@@ -13357,10 +13357,10 @@
         <v>52</v>
       </c>
       <c r="I181" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J181" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K181" s="2">
         <v>5381</v>
@@ -13422,10 +13422,10 @@
         <v>52</v>
       </c>
       <c r="I182" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J182" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K182" s="2">
         <v>5382</v>
@@ -13487,10 +13487,10 @@
         <v>52</v>
       </c>
       <c r="I183" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J183" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K183" s="2">
         <v>5383</v>
@@ -13552,10 +13552,10 @@
         <v>52</v>
       </c>
       <c r="I184" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J184" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K184" s="2">
         <v>5384</v>
@@ -13617,10 +13617,10 @@
         <v>52</v>
       </c>
       <c r="I185" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J185" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K185" s="2">
         <v>5385</v>
@@ -13682,10 +13682,10 @@
         <v>52</v>
       </c>
       <c r="I186" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J186" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K186" s="2">
         <v>5386</v>
@@ -13747,10 +13747,10 @@
         <v>52</v>
       </c>
       <c r="I187" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J187" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K187" s="2">
         <v>5387</v>
@@ -13812,10 +13812,10 @@
         <v>52</v>
       </c>
       <c r="I188" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J188" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K188" s="2">
         <v>5388</v>
@@ -13877,10 +13877,10 @@
         <v>52</v>
       </c>
       <c r="I189" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J189" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K189" s="2">
         <v>5389</v>
@@ -13942,10 +13942,10 @@
         <v>52</v>
       </c>
       <c r="I190" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J190" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K190" s="2">
         <v>5390</v>
@@ -14007,10 +14007,10 @@
         <v>52</v>
       </c>
       <c r="I191" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J191" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K191" s="2">
         <v>5391</v>
@@ -14072,10 +14072,10 @@
         <v>52</v>
       </c>
       <c r="I192" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J192" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K192" s="2">
         <v>5392</v>
@@ -14137,10 +14137,10 @@
         <v>52</v>
       </c>
       <c r="I193" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J193" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K193" s="2">
         <v>5393</v>
@@ -14202,10 +14202,10 @@
         <v>52</v>
       </c>
       <c r="I194" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J194" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K194" s="2">
         <v>5394</v>
@@ -14267,10 +14267,10 @@
         <v>52</v>
       </c>
       <c r="I195" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J195" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K195" s="2">
         <v>5404</v>
@@ -14332,10 +14332,10 @@
         <v>52</v>
       </c>
       <c r="I196" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J196" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K196" s="2">
         <v>5371</v>
@@ -14397,10 +14397,10 @@
         <v>52</v>
       </c>
       <c r="I197" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J197" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K197" s="2">
         <v>5372</v>
@@ -14462,10 +14462,10 @@
         <v>52</v>
       </c>
       <c r="I198" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J198" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K198" s="2">
         <v>5374</v>
@@ -14527,10 +14527,10 @@
         <v>52</v>
       </c>
       <c r="I199" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J199" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K199" s="2">
         <v>5375</v>
@@ -14592,10 +14592,10 @@
         <v>52</v>
       </c>
       <c r="I200" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J200" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K200" s="2">
         <v>5376</v>
@@ -14657,10 +14657,10 @@
         <v>52</v>
       </c>
       <c r="I201" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J201" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K201" s="2">
         <v>5377</v>
@@ -14722,10 +14722,10 @@
         <v>52</v>
       </c>
       <c r="I202" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J202" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K202" s="2">
         <v>5378</v>
@@ -14787,10 +14787,10 @@
         <v>52</v>
       </c>
       <c r="I203" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J203" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K203" s="2">
         <v>5379</v>
@@ -14852,10 +14852,10 @@
         <v>52</v>
       </c>
       <c r="I204" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J204" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K204" s="2">
         <v>5380</v>
@@ -14917,10 +14917,10 @@
         <v>25</v>
       </c>
       <c r="I205" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J205" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K205" s="2">
         <v>5371</v>
@@ -14982,10 +14982,10 @@
         <v>25</v>
       </c>
       <c r="I206" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J206" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K206" s="2">
         <v>5373</v>
@@ -15047,10 +15047,10 @@
         <v>25</v>
       </c>
       <c r="I207" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J207" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K207" s="2">
         <v>5375</v>
@@ -15112,10 +15112,10 @@
         <v>25</v>
       </c>
       <c r="I208" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J208" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K208" s="2">
         <v>5376</v>
@@ -15177,10 +15177,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J209" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K209" s="2">
         <v>5377</v>
@@ -15242,10 +15242,10 @@
         <v>25</v>
       </c>
       <c r="I210" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J210" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K210" s="2">
         <v>5378</v>
@@ -15307,10 +15307,10 @@
         <v>25</v>
       </c>
       <c r="I211" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J211" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K211" s="2">
         <v>5379</v>
@@ -15372,10 +15372,10 @@
         <v>25</v>
       </c>
       <c r="I212" s="6">
-        <v>3.6243055555555554</v>
+        <v>4.624074074074074</v>
       </c>
       <c r="J212" s="6">
-        <v>3.7006944444444443</v>
+        <v>4.700462962962963</v>
       </c>
       <c r="K212" s="2">
         <v>5380</v>
@@ -15437,10 +15437,10 @@
         <v>52</v>
       </c>
       <c r="I213" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J213" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K213" s="2">
         <v>5395</v>
@@ -15502,10 +15502,10 @@
         <v>52</v>
       </c>
       <c r="I214" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J214" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K214" s="2">
         <v>5396</v>
@@ -15567,10 +15567,10 @@
         <v>52</v>
       </c>
       <c r="I215" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J215" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K215" s="2">
         <v>5397</v>
@@ -15632,10 +15632,10 @@
         <v>52</v>
       </c>
       <c r="I216" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J216" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K216" s="2">
         <v>5398</v>
@@ -15697,10 +15697,10 @@
         <v>52</v>
       </c>
       <c r="I217" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J217" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K217" s="2">
         <v>5399</v>
@@ -15762,10 +15762,10 @@
         <v>52</v>
       </c>
       <c r="I218" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J218" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K218" s="2">
         <v>5400</v>
@@ -15827,10 +15827,10 @@
         <v>52</v>
       </c>
       <c r="I219" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J219" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K219" s="2">
         <v>5401</v>
@@ -15892,10 +15892,10 @@
         <v>52</v>
       </c>
       <c r="I220" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J220" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K220" s="2">
         <v>5402</v>
@@ -15957,10 +15957,10 @@
         <v>52</v>
       </c>
       <c r="I221" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J221" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K221" s="2">
         <v>5403</v>
@@ -16022,10 +16022,10 @@
         <v>52</v>
       </c>
       <c r="I222" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J222" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K222" s="2">
         <v>5381</v>
@@ -16087,10 +16087,10 @@
         <v>52</v>
       </c>
       <c r="I223" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J223" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K223" s="2">
         <v>5382</v>
@@ -16152,10 +16152,10 @@
         <v>52</v>
       </c>
       <c r="I224" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J224" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K224" s="2">
         <v>5384</v>
@@ -16217,10 +16217,10 @@
         <v>52</v>
       </c>
       <c r="I225" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J225" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K225" s="2">
         <v>5385</v>
@@ -16282,10 +16282,10 @@
         <v>52</v>
       </c>
       <c r="I226" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J226" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K226" s="2">
         <v>5386</v>
@@ -16347,10 +16347,10 @@
         <v>52</v>
       </c>
       <c r="I227" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J227" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K227" s="2">
         <v>5387</v>
@@ -16412,10 +16412,10 @@
         <v>52</v>
       </c>
       <c r="I228" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J228" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K228" s="2">
         <v>5388</v>
@@ -16477,10 +16477,10 @@
         <v>52</v>
       </c>
       <c r="I229" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J229" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K229" s="2">
         <v>5389</v>
@@ -16542,10 +16542,10 @@
         <v>52</v>
       </c>
       <c r="I230" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J230" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K230" s="2">
         <v>5390</v>
@@ -16607,10 +16607,10 @@
         <v>52</v>
       </c>
       <c r="I231" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J231" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K231" s="2">
         <v>5391</v>
@@ -16672,10 +16672,10 @@
         <v>52</v>
       </c>
       <c r="I232" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J232" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K232" s="2">
         <v>5392</v>
@@ -16737,10 +16737,10 @@
         <v>52</v>
       </c>
       <c r="I233" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J233" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K233" s="2">
         <v>5393</v>
@@ -16802,10 +16802,10 @@
         <v>52</v>
       </c>
       <c r="I234" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J234" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K234" s="2">
         <v>5394</v>
@@ -16867,10 +16867,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J235" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K235" s="2">
         <v>5404</v>
@@ -16932,10 +16932,10 @@
         <v>52</v>
       </c>
       <c r="I236" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J236" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K236" s="2">
         <v>5371</v>
@@ -16997,10 +16997,10 @@
         <v>52</v>
       </c>
       <c r="I237" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J237" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K237" s="2">
         <v>5373</v>
@@ -17062,10 +17062,10 @@
         <v>52</v>
       </c>
       <c r="I238" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J238" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K238" s="2">
         <v>5374</v>
@@ -17127,10 +17127,10 @@
         <v>52</v>
       </c>
       <c r="I239" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J239" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K239" s="2">
         <v>5375</v>
@@ -17192,10 +17192,10 @@
         <v>52</v>
       </c>
       <c r="I240" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J240" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K240" s="2">
         <v>5376</v>
@@ -17257,10 +17257,10 @@
         <v>52</v>
       </c>
       <c r="I241" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J241" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K241" s="2">
         <v>5377</v>
@@ -17322,10 +17322,10 @@
         <v>52</v>
       </c>
       <c r="I242" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J242" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K242" s="2">
         <v>5378</v>
@@ -17387,10 +17387,10 @@
         <v>52</v>
       </c>
       <c r="I243" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J243" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K243" s="2">
         <v>5379</v>
@@ -17452,10 +17452,10 @@
         <v>52</v>
       </c>
       <c r="I244" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J244" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K244" s="2">
         <v>5380</v>
@@ -17517,10 +17517,10 @@
         <v>52</v>
       </c>
       <c r="I245" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J245" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K245" s="2">
         <v>5395</v>
@@ -17582,10 +17582,10 @@
         <v>52</v>
       </c>
       <c r="I246" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J246" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K246" s="2">
         <v>5396</v>
@@ -17647,10 +17647,10 @@
         <v>52</v>
       </c>
       <c r="I247" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J247" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K247" s="2">
         <v>5397</v>
@@ -17712,10 +17712,10 @@
         <v>52</v>
       </c>
       <c r="I248" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J248" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K248" s="2">
         <v>5398</v>
@@ -17777,10 +17777,10 @@
         <v>52</v>
       </c>
       <c r="I249" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J249" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K249" s="2">
         <v>5399</v>
@@ -17842,10 +17842,10 @@
         <v>52</v>
       </c>
       <c r="I250" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J250" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K250" s="2">
         <v>5400</v>
@@ -17907,10 +17907,10 @@
         <v>52</v>
       </c>
       <c r="I251" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J251" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K251" s="2">
         <v>5401</v>
@@ -17972,10 +17972,10 @@
         <v>52</v>
       </c>
       <c r="I252" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J252" s="6">
-        <v>3.5409722222222224</v>
+        <v>4.540740740740741</v>
       </c>
       <c r="K252" s="2">
         <v>5403</v>
@@ -18037,10 +18037,10 @@
         <v>52</v>
       </c>
       <c r="I253" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J253" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K253" s="2">
         <v>5373</v>
@@ -18102,10 +18102,10 @@
         <v>52</v>
       </c>
       <c r="I254" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J254" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K254" s="2">
         <v>5381</v>
@@ -18167,10 +18167,10 @@
         <v>52</v>
       </c>
       <c r="I255" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J255" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K255" s="2">
         <v>5382</v>
@@ -18232,10 +18232,10 @@
         <v>52</v>
       </c>
       <c r="I256" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J256" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K256" s="2">
         <v>5383</v>
@@ -18297,10 +18297,10 @@
         <v>52</v>
       </c>
       <c r="I257" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J257" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K257" s="2">
         <v>5384</v>
@@ -18362,10 +18362,10 @@
         <v>52</v>
       </c>
       <c r="I258" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J258" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K258" s="2">
         <v>5385</v>
@@ -18427,10 +18427,10 @@
         <v>52</v>
       </c>
       <c r="I259" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J259" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K259" s="2">
         <v>5386</v>
@@ -18492,10 +18492,10 @@
         <v>52</v>
       </c>
       <c r="I260" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J260" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K260" s="2">
         <v>5387</v>
@@ -18557,10 +18557,10 @@
         <v>52</v>
       </c>
       <c r="I261" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J261" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K261" s="2">
         <v>5388</v>
@@ -18622,10 +18622,10 @@
         <v>52</v>
       </c>
       <c r="I262" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J262" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K262" s="2">
         <v>5389</v>
@@ -18687,10 +18687,10 @@
         <v>52</v>
       </c>
       <c r="I263" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J263" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K263" s="2">
         <v>5390</v>
@@ -18752,10 +18752,10 @@
         <v>52</v>
       </c>
       <c r="I264" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J264" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K264" s="2">
         <v>5391</v>
@@ -18817,10 +18817,10 @@
         <v>52</v>
       </c>
       <c r="I265" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J265" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K265" s="2">
         <v>5392</v>
@@ -18882,10 +18882,10 @@
         <v>52</v>
       </c>
       <c r="I266" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J266" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K266" s="2">
         <v>5393</v>
@@ -18947,10 +18947,10 @@
         <v>52</v>
       </c>
       <c r="I267" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J267" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K267" s="2">
         <v>5394</v>
@@ -19012,10 +19012,10 @@
         <v>52</v>
       </c>
       <c r="I268" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J268" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K268" s="2">
         <v>5404</v>
@@ -19077,10 +19077,10 @@
         <v>52</v>
       </c>
       <c r="I269" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J269" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K269" s="2">
         <v>5395</v>
@@ -19142,10 +19142,10 @@
         <v>52</v>
       </c>
       <c r="I270" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J270" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K270" s="2">
         <v>5396</v>
@@ -19207,10 +19207,10 @@
         <v>52</v>
       </c>
       <c r="I271" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J271" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K271" s="2">
         <v>5397</v>
@@ -19272,10 +19272,10 @@
         <v>52</v>
       </c>
       <c r="I272" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J272" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K272" s="2">
         <v>5398</v>
@@ -19337,10 +19337,10 @@
         <v>52</v>
       </c>
       <c r="I273" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J273" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K273" s="2">
         <v>5399</v>
@@ -19402,10 +19402,10 @@
         <v>52</v>
       </c>
       <c r="I274" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J274" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K274" s="2">
         <v>5400</v>
@@ -19467,10 +19467,10 @@
         <v>52</v>
       </c>
       <c r="I275" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J275" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K275" s="2">
         <v>5401</v>
@@ -19532,10 +19532,10 @@
         <v>52</v>
       </c>
       <c r="I276" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J276" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K276" s="2">
         <v>5402</v>
@@ -19597,10 +19597,10 @@
         <v>52</v>
       </c>
       <c r="I277" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J277" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K277" s="2">
         <v>5403</v>
@@ -19662,10 +19662,10 @@
         <v>52</v>
       </c>
       <c r="I278" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J278" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K278" s="2">
         <v>5381</v>
@@ -19727,10 +19727,10 @@
         <v>52</v>
       </c>
       <c r="I279" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J279" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K279" s="2">
         <v>5382</v>
@@ -19792,10 +19792,10 @@
         <v>52</v>
       </c>
       <c r="I280" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J280" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K280" s="2">
         <v>5384</v>
@@ -19857,10 +19857,10 @@
         <v>52</v>
       </c>
       <c r="I281" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J281" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K281" s="2">
         <v>5385</v>
@@ -19922,10 +19922,10 @@
         <v>52</v>
       </c>
       <c r="I282" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J282" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K282" s="2">
         <v>5386</v>
@@ -19987,10 +19987,10 @@
         <v>52</v>
       </c>
       <c r="I283" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J283" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K283" s="2">
         <v>5387</v>
@@ -20052,10 +20052,10 @@
         <v>52</v>
       </c>
       <c r="I284" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J284" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K284" s="2">
         <v>5388</v>
@@ -20117,10 +20117,10 @@
         <v>52</v>
       </c>
       <c r="I285" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J285" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K285" s="2">
         <v>5389</v>
@@ -20182,10 +20182,10 @@
         <v>52</v>
       </c>
       <c r="I286" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J286" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K286" s="2">
         <v>5390</v>
@@ -20247,10 +20247,10 @@
         <v>52</v>
       </c>
       <c r="I287" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J287" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K287" s="2">
         <v>5391</v>
@@ -20312,10 +20312,10 @@
         <v>52</v>
       </c>
       <c r="I288" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J288" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K288" s="2">
         <v>5392</v>
@@ -20377,10 +20377,10 @@
         <v>52</v>
       </c>
       <c r="I289" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J289" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K289" s="2">
         <v>5393</v>
@@ -20442,10 +20442,10 @@
         <v>52</v>
       </c>
       <c r="I290" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J290" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K290" s="2">
         <v>5394</v>
@@ -20507,10 +20507,10 @@
         <v>52</v>
       </c>
       <c r="I291" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J291" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K291" s="2">
         <v>5404</v>
@@ -20572,10 +20572,10 @@
         <v>52</v>
       </c>
       <c r="I292" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J292" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K292" s="2">
         <v>5395</v>
@@ -20637,10 +20637,10 @@
         <v>52</v>
       </c>
       <c r="I293" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J293" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K293" s="2">
         <v>5396</v>
@@ -20702,10 +20702,10 @@
         <v>52</v>
       </c>
       <c r="I294" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J294" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K294" s="2">
         <v>5397</v>
@@ -20767,10 +20767,10 @@
         <v>52</v>
       </c>
       <c r="I295" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J295" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K295" s="2">
         <v>5398</v>
@@ -20832,10 +20832,10 @@
         <v>52</v>
       </c>
       <c r="I296" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J296" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K296" s="2">
         <v>5399</v>
@@ -20897,10 +20897,10 @@
         <v>52</v>
       </c>
       <c r="I297" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J297" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K297" s="2">
         <v>5400</v>
@@ -20962,10 +20962,10 @@
         <v>52</v>
       </c>
       <c r="I298" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J298" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K298" s="2">
         <v>5401</v>
@@ -21027,10 +21027,10 @@
         <v>52</v>
       </c>
       <c r="I299" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J299" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K299" s="2">
         <v>5402</v>
@@ -21092,10 +21092,10 @@
         <v>52</v>
       </c>
       <c r="I300" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J300" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K300" s="2">
         <v>5403</v>
@@ -21157,10 +21157,10 @@
         <v>52</v>
       </c>
       <c r="I301" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J301" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K301" s="2">
         <v>5381</v>
@@ -21222,10 +21222,10 @@
         <v>52</v>
       </c>
       <c r="I302" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J302" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K302" s="2">
         <v>5382</v>
@@ -21287,10 +21287,10 @@
         <v>52</v>
       </c>
       <c r="I303" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J303" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K303" s="2">
         <v>5383</v>
@@ -21352,10 +21352,10 @@
         <v>52</v>
       </c>
       <c r="I304" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J304" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K304" s="2">
         <v>5385</v>
@@ -21417,10 +21417,10 @@
         <v>52</v>
       </c>
       <c r="I305" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J305" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K305" s="2">
         <v>5386</v>
@@ -21482,10 +21482,10 @@
         <v>52</v>
       </c>
       <c r="I306" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J306" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K306" s="2">
         <v>5391</v>
@@ -21547,10 +21547,10 @@
         <v>52</v>
       </c>
       <c r="I307" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J307" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K307" s="2">
         <v>5392</v>
@@ -21612,10 +21612,10 @@
         <v>52</v>
       </c>
       <c r="I308" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J308" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K308" s="2">
         <v>5393</v>
@@ -21677,10 +21677,10 @@
         <v>52</v>
       </c>
       <c r="I309" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J309" s="6">
-        <v>3.5097222222222224</v>
+        <v>4.509490740740741</v>
       </c>
       <c r="K309" s="2">
         <v>5394</v>
@@ -21742,10 +21742,10 @@
         <v>52</v>
       </c>
       <c r="I310" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J310" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K310" s="2">
         <v>5395</v>
@@ -21807,10 +21807,10 @@
         <v>52</v>
       </c>
       <c r="I311" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J311" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K311" s="2">
         <v>5396</v>
@@ -21872,10 +21872,10 @@
         <v>52</v>
       </c>
       <c r="I312" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J312" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K312" s="2">
         <v>5397</v>
@@ -21937,10 +21937,10 @@
         <v>52</v>
       </c>
       <c r="I313" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J313" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K313" s="2">
         <v>5398</v>
@@ -22002,10 +22002,10 @@
         <v>52</v>
       </c>
       <c r="I314" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J314" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K314" s="2">
         <v>5399</v>
@@ -22067,10 +22067,10 @@
         <v>52</v>
       </c>
       <c r="I315" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J315" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K315" s="2">
         <v>5400</v>
@@ -22132,10 +22132,10 @@
         <v>52</v>
       </c>
       <c r="I316" s="6">
-        <v>3.457638888888889</v>
+        <v>4.457407407407407</v>
       </c>
       <c r="J316" s="6">
-        <v>3.4993055555555554</v>
+        <v>4.499074074074074</v>
       </c>
       <c r="K316" s="2">
         <v>5401</v>
